--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A5E7B-E5F8-C542-8C12-19594A14DBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40656099-FD8D-FC4A-8E3D-90957117A4E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="920" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="1220" windowWidth="20080" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -210,33 +210,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>"public"</t>
-  </si>
-  <si>
-    <t>クラスのアクセス。通常は public。</t>
-  </si>
-  <si>
-    <t>abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>抽象クラスかどうか。通常は false。</t>
-  </si>
-  <si>
-    <t>generateToString</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>toStringメソッドを生成するかどうか。</t>
-  </si>
-  <si>
     <t>adjustFieldName</t>
   </si>
   <si>
@@ -250,12 +223,6 @@
   </si>
   <si>
     <t>継承するクラスを指定します。</t>
-  </si>
-  <si>
-    <t>implementsList</t>
-  </si>
-  <si>
-    <t>実装するインタフェース(java.lang.String)の一覧。</t>
   </si>
   <si>
     <t>fieldList</t>
@@ -318,33 +285,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>クラスのアノテーションを指定します。</t>
-    <rPh sb="12" eb="14">
-      <t>シテイシマス。</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>annotationList</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>importList</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>importを指定します。</t>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>デフォルト値の変形をおこなうかどうか。※なるべく変形を利用しないことを推奨したい。※プログラムAPIとして生成する際には、このフィールドを明示的に設定してください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>final</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -386,53 +327,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>dataクラスかどうか。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>java.lang.Boolean</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>headerList</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>source コードの先頭に書かれるコード群です。</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">セントウ </t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">カカレル </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>basedir</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>createImportList</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>インタフェイスかどうか。通常は false。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -482,6 +389,183 @@
   </si>
   <si>
     <t>java.util.List&lt;blanco.vuecomponent.valueobject.BlancoVueComponentFieldStructure&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>routerPath</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>routerName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>impledir</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>vue-routerのpathとして使用されます。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シヨウサレマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>vue-routerのnameとして使用されます。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シヨウサレマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本番時に実装クラスを配置する際のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本番時にファイルを配置する際のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">サイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>componentKind</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"screen"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンポーネントの種別。screen or part</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>authRequired</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>認証が必要なクラスかどうか</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニンショウナ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ヒツヨウナクラスカドウカ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>forceReload</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>useTemplate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>templateを使用するかどうか</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>useScript</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>useStyle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>scriptを使用するかどうか</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>styleを使用するかどうか</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>componentList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用するコンポーネントの(java.lang.String)の一覧。自動探索はされないので、importHeaderListに明示的に記載する必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ジドウタナｓク </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">タンサク </t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t xml:space="preserve">メイジテキニ </t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">キサイ </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">ヒツヨウガ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンポーネントの表示名を定義します。</t>
+    <rPh sb="0" eb="2">
+      <t>コンポーネントノ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">ヒョウジメイ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">テイギシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>interfaceHeaderList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>componentHeaderList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>component source コードの先頭に書かれるコード群です。</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">セントウ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">カカレル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Interface source コードの先頭に書かれるコード群です。</t>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1468,10 +1552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1524,7 +1608,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="10" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
@@ -1537,7 +1621,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="14" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -1550,7 +1634,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1789,18 +1873,18 @@
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A49" si="0">A28+1</f>
+        <f t="shared" ref="A29:A51" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="57" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29"/>
@@ -1811,74 +1895,70 @@
         <v>4</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F30" s="58"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" ht="47" customHeight="1">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="40"/>
-      <c r="E31" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="43"/>
+      <c r="E31" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="58"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="26.25" customHeight="1">
+    <row r="32" spans="1:7" ht="47" customHeight="1">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="58"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" ht="47" customHeight="1">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="58"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1887,38 +1967,36 @@
         <v>8</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="43"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="26.25" customHeight="1">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="56"/>
+        <v>45</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="52"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1927,16 +2005,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F36" s="52"/>
       <c r="G36"/>
@@ -1947,18 +2025,18 @@
         <v>11</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="56"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1967,16 +2045,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F38" s="52"/>
       <c r="G38"/>
@@ -1987,16 +2065,16 @@
         <v>13</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="D39" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F39" s="52"/>
       <c r="G39"/>
@@ -2007,16 +2085,16 @@
         <v>14</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="D40" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F40" s="52"/>
       <c r="G40"/>
@@ -2027,16 +2105,16 @@
         <v>15</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D41" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41"/>
@@ -2047,16 +2125,16 @@
         <v>16</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D42" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F42" s="52"/>
       <c r="G42"/>
@@ -2067,16 +2145,16 @@
         <v>17</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D43" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F43" s="52"/>
       <c r="G43"/>
@@ -2087,16 +2165,16 @@
         <v>18</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D44" s="40" t="b">
+        <v>1</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F44" s="52"/>
       <c r="G44"/>
@@ -2107,133 +2185,193 @@
         <v>19</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="D45" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="E45" s="51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="52"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="45" customHeight="1">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D46" s="40" t="b">
+        <v>1</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="53"/>
+        <v>61</v>
+      </c>
+      <c r="F46" s="52"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>90</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D47" s="40"/>
       <c r="E47" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="53"/>
+        <v>41</v>
+      </c>
+      <c r="F47" s="52"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" ht="45" customHeight="1">
       <c r="A48" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="E48" s="51" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F48" s="53"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="45">
       <c r="A49" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>72</v>
+      <c r="B49" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="52"/>
+        <v>43</v>
+      </c>
+      <c r="F49" s="53"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="14" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="53"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7">
+      <c r="A51" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="52"/>
       <c r="G51"/>
     </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="38">
+        <f>A51+1</f>
+        <v>26</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" ht="14" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="60"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="G54"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2244,8 +2382,8 @@
     <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D64" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40656099-FD8D-FC4A-8E3D-90957117A4E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E8C28-3EFF-9844-B9C1-33BED6F557B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="1220" windowWidth="20080" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -565,6 +565,23 @@
     <t>Interface source コードの先頭に書かれるコード群です。</t>
     <rPh sb="11" eb="13">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>expectConsistentAfterTransition</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>遷移後の参照に一貫性を期待</t>
+    <rPh sb="0" eb="2">
+      <t>コンポーネントノ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">ヒョウジメイ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">テイギシマス。 </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -978,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1100,47 +1117,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,10 +1572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1750,24 +1770,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="54"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="52"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="52"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1809,30 +1829,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="53" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1883,10 +1903,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="57"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="47" customHeight="1">
@@ -1901,10 +1921,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="40"/>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="57"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="47" customHeight="1">
@@ -1919,10 +1939,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="40"/>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="57"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="47" customHeight="1">
@@ -1937,10 +1957,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="40"/>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="57"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="47" customHeight="1">
@@ -1955,10 +1975,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="40"/>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="57"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1993,10 +2013,10 @@
       <c r="D35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="50"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -2013,10 +2033,10 @@
       <c r="D36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="50"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -2033,10 +2053,10 @@
       <c r="D37" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="55"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -2053,10 +2073,10 @@
       <c r="D38" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="50"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2073,10 +2093,10 @@
       <c r="D39" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="50"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -2093,10 +2113,10 @@
       <c r="D40" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="50"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -2113,10 +2133,10 @@
       <c r="D41" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="52"/>
+      <c r="F41" s="50"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="15">
@@ -2133,10 +2153,10 @@
       <c r="D42" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="50"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="15">
@@ -2153,10 +2173,10 @@
       <c r="D43" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="52"/>
+      <c r="F43" s="50"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="15">
@@ -2173,10 +2193,10 @@
       <c r="D44" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="52"/>
+      <c r="F44" s="50"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -2193,10 +2213,10 @@
       <c r="D45" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="52"/>
+      <c r="F45" s="50"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="15">
@@ -2213,10 +2233,10 @@
       <c r="D46" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="50"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -2231,10 +2251,10 @@
         <v>32</v>
       </c>
       <c r="D47" s="40"/>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="52"/>
+      <c r="F47" s="50"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="45" customHeight="1">
@@ -2251,10 +2271,10 @@
       <c r="D48" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="53"/>
+      <c r="F48" s="51"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="45">
@@ -2271,10 +2291,10 @@
       <c r="D49" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="53"/>
+      <c r="F49" s="51"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="15">
@@ -2289,10 +2309,10 @@
         <v>51</v>
       </c>
       <c r="D50" s="40"/>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="51"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7">
@@ -2309,13 +2329,13 @@
       <c r="D51" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="50"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="38">
         <f>A51+1</f>
         <v>26</v>
@@ -2327,37 +2347,54 @@
         <v>32</v>
       </c>
       <c r="D52" s="40"/>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="61" t="s">
         <v>91</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="14" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="60"/>
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="38">
+        <f>A52+1</f>
+        <v>27</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="43"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="14" customHeight="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
       <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="G55"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E19:E20"/>
@@ -2372,18 +2409,21 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D67" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E8C28-3EFF-9844-B9C1-33BED6F557B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721A8B31-9CA2-FF46-825B-081B1F91B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="1220" windowWidth="20080" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="5360" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -225,12 +225,6 @@
     <t>継承するクラスを指定します。</t>
   </si>
   <si>
-    <t>fieldList</t>
-  </si>
-  <si>
-    <t>フィールドを記憶するリストを指定します。</t>
-  </si>
-  <si>
     <t>java.util.List&lt;java.lang.String&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -384,14 +378,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>new java.util.ArrayList&lt;blanco.vuecomponent.valueobject.BlancoVueComponentFieldStructure&gt;()</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>java.util.List&lt;blanco.vuecomponent.valueobject.BlancoVueComponentFieldStructure&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>routerPath</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -505,28 +491,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>使用するコンポーネントの(java.lang.String)の一覧。自動探索はされないので、importHeaderListに明示的に記載する必要があります。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">シヨウスル </t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t xml:space="preserve">ジドウタナｓク </t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t xml:space="preserve">タンサク </t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t xml:space="preserve">メイジテキニ </t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t xml:space="preserve">キサイ </t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t xml:space="preserve">ヒツヨウガ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>subject</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -544,10 +508,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>interfaceHeaderList</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>componentHeaderList</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -562,13 +522,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Interface source コードの先頭に書かれるコード群です。</t>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>expectConsistentAfterTransition</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -578,11 +531,177 @@
       <t>コンポーネントノ</t>
     </rPh>
     <rPh sb="8" eb="11">
+      <t xml:space="preserve">ヒョウジメイ テイギシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンポーネントの別名を定義します。</t>
+    <rPh sb="0" eb="2">
+      <t>コンポーネントノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ベツ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t xml:space="preserve">ヒョウジメイ </t>
     </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">テイギシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>useSetup</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>useData</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>setup関数を実装するかどうか</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カンスウヲ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジッソウスルカドウカ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>data関数を実装するかどうか</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カンスウヲ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジッソウスルカドウカ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>apiHeaderList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>api 定義コードの先頭に書かれるコード群です。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">セントウ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">カカレル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>propsHeaderList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>props 定義コードの先頭に書かれるコード群です。</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
     <rPh sb="12" eb="14">
-      <t xml:space="preserve">テイギシマス。 </t>
-    </rPh>
+      <t xml:space="preserve">セントウ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">カカレル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>emitsHeaderList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>emits 定義コードの先頭に書かれるコード群です。</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">セントウ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">カカレル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用するコンポーネントの(java.lang.String)の一覧。自動探索はされないので、componentHeaderListに明示的に記載する必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ジドウタナｓク </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">タンサク </t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t xml:space="preserve">メイジテキニ </t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t xml:space="preserve">キサイ </t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t xml:space="preserve">ヒツヨウガ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>propsList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;blanco.vuecomponent.valueobject.BlancoVueComponentPropsStructure&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;blanco.vuecomponent.valueobject.BlancoVueComponentPropsStructure&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>propsのリストを記憶します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>apiList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;blanco.vuecomponent.valueobject.BlancoVueComponentApiStructure&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;blanco.vuecomponent.valueobject.BlancoVueComponentApiStructure&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>apiのリストを記憶します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>emitsList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;blanco.vuecomponent.valueobject.BlancoVueComponentEmitsStructure&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;blanco.vuecomponent.valueobject.BlancoVueComponentEmitsStructure&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>emitsのリストを記憶します。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1117,6 +1236,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1158,9 +1280,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1572,10 +1691,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1628,7 +1747,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
@@ -1641,7 +1760,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -1654,7 +1773,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1770,24 +1889,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="53"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="52"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="53"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1829,30 +1948,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1893,20 +2012,20 @@
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A51" si="0">A28+1</f>
+        <f t="shared" ref="A29:A60" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="57"/>
+      <c r="E29" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="58"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="47" customHeight="1">
@@ -1915,16 +2034,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="40"/>
-      <c r="E30" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="57"/>
+      <c r="E30" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="58"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="47" customHeight="1">
@@ -1933,16 +2052,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="40"/>
-      <c r="E31" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="57"/>
+      <c r="E31" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="58"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="47" customHeight="1">
@@ -1951,16 +2070,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="40"/>
-      <c r="E32" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="57"/>
+      <c r="E32" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="58"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="47" customHeight="1">
@@ -1969,16 +2088,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="40"/>
-      <c r="E33" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="57"/>
+      <c r="E33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="58"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1994,7 +2113,7 @@
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34"/>
@@ -2005,18 +2124,18 @@
         <v>9</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="50"/>
+      <c r="F35" s="51"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -2025,18 +2144,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="50"/>
+        <v>43</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="56"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -2045,18 +2164,18 @@
         <v>11</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="55"/>
+        <v>43</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="56"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -2065,18 +2184,18 @@
         <v>12</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="50"/>
+        <v>43</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="56"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2085,18 +2204,18 @@
         <v>13</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="50"/>
+        <v>42</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="56"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -2105,18 +2224,18 @@
         <v>14</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="50"/>
+        <v>32</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="51"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -2125,18 +2244,18 @@
         <v>15</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="50"/>
+      <c r="E41" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="51"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="15">
@@ -2145,18 +2264,18 @@
         <v>16</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" s="50"/>
+      <c r="E42" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="51"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="15">
@@ -2165,18 +2284,18 @@
         <v>17</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="50"/>
+      <c r="E43" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="51"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="15">
@@ -2185,18 +2304,18 @@
         <v>18</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="51"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -2205,18 +2324,18 @@
         <v>19</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="50"/>
+      <c r="E45" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="51"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="15">
@@ -2225,18 +2344,18 @@
         <v>20</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="50"/>
+      <c r="E46" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="51"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -2245,148 +2364,286 @@
         <v>21</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="50"/>
+        <v>56</v>
+      </c>
+      <c r="D47" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="51"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="45" customHeight="1">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="D48" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="45">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" ht="45" customHeight="1">
       <c r="A50" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B50" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" ht="45">
+      <c r="A51" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="52"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" ht="45">
+      <c r="A52" s="38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" ht="45">
+      <c r="A53" s="38">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="38">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="51"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B51" s="45" t="s">
+      <c r="D54" s="40"/>
+      <c r="E54" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="52"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="38">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="E55" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="F55" s="51"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="40"/>
+      <c r="E56" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="43"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="38">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="50"/>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="38">
-        <f>A51+1</f>
-        <v>26</v>
-      </c>
-      <c r="B52" s="39" t="s">
+      <c r="D57" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="F57" s="43"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" ht="15">
+      <c r="A58" s="38">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="61" t="s">
+      <c r="B58" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52"/>
-    </row>
-    <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="38">
-        <f>A52+1</f>
-        <v>27</v>
-      </c>
-      <c r="B53" s="39" t="s">
+      <c r="C58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="40"/>
+      <c r="E58" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" ht="15">
+      <c r="A59" s="38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="51"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" ht="15">
+      <c r="A60" s="38">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="43"/>
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" ht="14" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="G55"/>
+      <c r="F60" s="51"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" ht="14" customHeight="1">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="G62"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="39">
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2396,34 +2653,40 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D75" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721A8B31-9CA2-FF46-825B-081B1F91B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3EF906-9AFE-7249-9E76-014590040008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="5360" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="3560" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -702,6 +702,27 @@
   </si>
   <si>
     <t>emitsのリストを記憶します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>beforeRouterLeave</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BeforeRouterLeave関数名を定義します。</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">カンスウヲ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">メイヲ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1691,10 +1712,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2012,7 +2033,7 @@
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A60" si="0">A28+1</f>
+        <f t="shared" ref="A29:A61" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -2630,20 +2651,40 @@
       <c r="F60" s="51"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="14" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
+    <row r="61" spans="1:7" ht="15">
+      <c r="A61" s="38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="51"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="14" customHeight="1">
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
       <c r="G62"/>
     </row>
+    <row r="63" spans="1:7">
+      <c r="G63"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2668,7 +2709,7 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
@@ -2680,13 +2721,14 @@
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E60:F60"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D75" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D76" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3EF906-9AFE-7249-9E76-014590040008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546CAF6-465A-7743-B110-D40327FAE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="3560" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,22 +705,22 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>beforeRouterLeave</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>""</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BeforeRouterLeave関数名を定義します。</t>
-    <rPh sb="17" eb="19">
+    <t>beforeRouteLeave</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BeforeRouteLeave関数名を定義します。</t>
+    <rPh sb="16" eb="18">
       <t xml:space="preserve">カンスウヲ </t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="18" eb="19">
       <t xml:space="preserve">メイヲ </t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="20" eb="22">
       <t xml:space="preserve">テイギ </t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -2657,13 +2657,13 @@
         <v>35</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="50" t="s">
         <v>118</v>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546CAF6-465A-7743-B110-D40327FAE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7260F-38D7-1744-A0A7-08F053AB0BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="3560" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -722,6 +722,26 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>layoutType</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レイアウト識別子。設定した値をそのままRoutePath.meta に設定します。</t>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">シキベツシ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">アタイヲ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">セッテイ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1135,16 +1155,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,7 +1248,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,47 +1278,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,10 +1730,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:F62"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1733,7 +1751,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="G1"/>
@@ -1763,50 +1781,50 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="10"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D9"/>
@@ -1815,22 +1833,22 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="30"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D11"/>
@@ -1839,11 +1857,11 @@
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D12"/>
@@ -1852,22 +1870,22 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="30"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7">
@@ -1881,276 +1899,276 @@
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="10"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="6"/>
       <c r="F18"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="53"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="35"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="34"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="35"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="23"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="8"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>1</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="40"/>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="38">
+      <c r="A28" s="36">
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="41"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
-      <c r="A29" s="38">
-        <f t="shared" ref="A29:A61" si="0">A28+1</f>
+      <c r="A29" s="36">
+        <f t="shared" ref="A29:A62" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="57" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="57"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="47" customHeight="1">
-      <c r="A30" s="38">
+      <c r="A30" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="57" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="57"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="47" customHeight="1">
-      <c r="A31" s="38">
+      <c r="A31" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="57" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="57"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="47" customHeight="1">
-      <c r="A32" s="38">
+      <c r="A32" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="57" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="57"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="47" customHeight="1">
-      <c r="A33" s="38">
+      <c r="A33" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="57" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="57"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="38">
+      <c r="A34" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="41"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A35" s="38">
+      <c r="A35" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="38" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="50" t="s">
@@ -2160,97 +2178,97 @@
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
-      <c r="A36" s="38">
+      <c r="A36" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="56"/>
+      <c r="F36" s="55"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="38">
+      <c r="A37" s="36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="55"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="38">
+      <c r="A38" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="55"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="38">
+      <c r="A39" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="55"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="38">
+      <c r="A40" s="36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="38" t="s">
         <v>73</v>
       </c>
       <c r="E40" s="50" t="s">
@@ -2260,17 +2278,17 @@
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="38">
+      <c r="A41" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="40" t="b">
+      <c r="D41" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E41" s="50" t="s">
@@ -2280,17 +2298,17 @@
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="38">
+      <c r="A42" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="40" t="b">
+      <c r="D42" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="50" t="s">
@@ -2300,17 +2318,17 @@
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="38">
+      <c r="A43" s="36">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="40" t="b">
+      <c r="D43" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E43" s="50" t="s">
@@ -2320,17 +2338,17 @@
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="38">
+      <c r="A44" s="36">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="40" t="b">
+      <c r="D44" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="50" t="s">
@@ -2340,17 +2358,17 @@
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="38">
+      <c r="A45" s="36">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="40" t="b">
+      <c r="D45" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E45" s="50" t="s">
@@ -2360,17 +2378,17 @@
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="38">
+      <c r="A46" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="40" t="b">
+      <c r="D46" s="38" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="50" t="s">
@@ -2380,17 +2398,17 @@
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="38">
+      <c r="A47" s="36">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="40" t="b">
+      <c r="D47" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="50" t="s">
@@ -2400,17 +2418,17 @@
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="38">
+      <c r="A48" s="36">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="40" t="b">
+      <c r="D48" s="38" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="50" t="s">
@@ -2420,17 +2438,17 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="38">
+      <c r="A49" s="36">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="50" t="s">
         <v>41</v>
       </c>
@@ -2438,17 +2456,17 @@
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="45" customHeight="1">
-      <c r="A50" s="38">
+      <c r="A50" s="36">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="38" t="s">
         <v>43</v>
       </c>
       <c r="E50" s="50" t="s">
@@ -2458,17 +2476,17 @@
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" ht="45">
-      <c r="A51" s="38">
+      <c r="A51" s="36">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="38" t="s">
         <v>106</v>
       </c>
       <c r="E51" s="50" t="s">
@@ -2478,17 +2496,17 @@
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" ht="45">
-      <c r="A52" s="38">
+      <c r="A52" s="36">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E52" s="50" t="s">
@@ -2498,17 +2516,17 @@
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" ht="45">
-      <c r="A53" s="38">
+      <c r="A53" s="36">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="38" t="s">
         <v>114</v>
       </c>
       <c r="E53" s="50" t="s">
@@ -2518,17 +2536,17 @@
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="38">
+      <c r="A54" s="36">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="40"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="50" t="s">
         <v>48</v>
       </c>
@@ -2536,17 +2554,17 @@
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="38">
+      <c r="A55" s="36">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="44" t="s">
         <v>54</v>
       </c>
       <c r="E55" s="50" t="s">
@@ -2556,73 +2574,73 @@
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="38">
+      <c r="A56" s="36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="47" t="s">
+      <c r="D56" s="38"/>
+      <c r="E56" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="43"/>
+      <c r="F56" s="41"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" ht="15">
-      <c r="A57" s="38">
+      <c r="A57" s="36">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="40" t="b">
+      <c r="D57" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="43"/>
+      <c r="F57" s="41"/>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" ht="15">
-      <c r="A58" s="38">
+      <c r="A58" s="36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="47" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="43"/>
+      <c r="F58" s="41"/>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:7" ht="15">
-      <c r="A59" s="38">
+      <c r="A59" s="36">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="40" t="b">
+      <c r="D59" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="50" t="s">
@@ -2632,17 +2650,17 @@
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" ht="15">
-      <c r="A60" s="38">
+      <c r="A60" s="36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="40" t="b">
+      <c r="D60" s="38" t="b">
         <v>0</v>
       </c>
       <c r="E60" s="50" t="s">
@@ -2652,17 +2670,17 @@
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="38">
+      <c r="A61" s="36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="38" t="s">
         <v>116</v>
       </c>
       <c r="E61" s="50" t="s">
@@ -2671,28 +2689,57 @@
       <c r="F61" s="51"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="14" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+    <row r="62" spans="1:7" ht="15">
+      <c r="A62" s="36">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="51"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="14" customHeight="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
       <c r="G63"/>
     </row>
+    <row r="64" spans="1:7">
+      <c r="G64"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
+  <mergeCells count="41">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E19:E20"/>
@@ -2709,26 +2756,18 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D76" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D77" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2785,54 +2824,54 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="27"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="32"/>
-      <c r="D4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7260F-38D7-1744-A0A7-08F053AB0BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A414E16E-ABDC-7D45-A5BE-9132D5B841AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="3560" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -742,6 +742,32 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>breadCrumbNameList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パンくずリストとして表示する画面名（alias）のリストを保持する。自分自身は含まない。</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">ガメンメイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ホジスル </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ジブｎ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ジシンハ </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">フクマナイ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1278,47 +1304,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1730,10 +1756,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1928,24 +1954,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="51"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="51"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1987,30 +2013,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="52" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="8"/>
       <c r="G26"/>
     </row>
@@ -2051,7 +2077,7 @@
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
       <c r="A29" s="36">
-        <f t="shared" ref="A29:A62" si="0">A28+1</f>
+        <f t="shared" ref="A29:A65" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -2061,10 +2087,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="38"/>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="56"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="47" customHeight="1">
@@ -2079,10 +2105,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="38"/>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="57"/>
+      <c r="F30" s="56"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="47" customHeight="1">
@@ -2097,10 +2123,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="38"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="56"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="47" customHeight="1">
@@ -2115,10 +2141,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="38"/>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="56"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="47" customHeight="1">
@@ -2133,10 +2159,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="38"/>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="56"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -2171,10 +2197,10 @@
       <c r="D35" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="51"/>
+      <c r="F35" s="47"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -2191,10 +2217,10 @@
       <c r="D36" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="55"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -2211,10 +2237,10 @@
       <c r="D37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -2231,10 +2257,10 @@
       <c r="D38" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="54"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2251,10 +2277,10 @@
       <c r="D39" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="55"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -2271,10 +2297,10 @@
       <c r="D40" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="47"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -2291,10 +2317,10 @@
       <c r="D41" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="51"/>
+      <c r="F41" s="47"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="15">
@@ -2311,10 +2337,10 @@
       <c r="D42" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="51"/>
+      <c r="F42" s="47"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="15">
@@ -2331,10 +2357,10 @@
       <c r="D43" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="51"/>
+      <c r="F43" s="47"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="15">
@@ -2351,10 +2377,10 @@
       <c r="D44" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="51"/>
+      <c r="F44" s="47"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -2371,10 +2397,10 @@
       <c r="D45" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="47"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="15">
@@ -2391,10 +2417,10 @@
       <c r="D46" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="51"/>
+      <c r="F46" s="47"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -2411,10 +2437,10 @@
       <c r="D47" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="47"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="15">
@@ -2431,10 +2457,10 @@
       <c r="D48" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="47"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="15">
@@ -2449,10 +2475,10 @@
         <v>32</v>
       </c>
       <c r="D49" s="38"/>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="47"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="45" customHeight="1">
@@ -2469,10 +2495,10 @@
       <c r="D50" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="52"/>
+      <c r="F50" s="50"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" ht="45">
@@ -2489,10 +2515,10 @@
       <c r="D51" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="50"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" ht="45">
@@ -2509,10 +2535,10 @@
       <c r="D52" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="50"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" ht="45">
@@ -2529,10 +2555,10 @@
       <c r="D53" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="52"/>
+      <c r="F53" s="50"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" ht="15">
@@ -2547,10 +2573,10 @@
         <v>49</v>
       </c>
       <c r="D54" s="38"/>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="52"/>
+      <c r="F54" s="50"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7">
@@ -2567,10 +2593,10 @@
       <c r="D55" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="51"/>
+      <c r="F55" s="47"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" ht="15">
@@ -2643,10 +2669,10 @@
       <c r="D59" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="51"/>
+      <c r="F59" s="47"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" ht="15">
@@ -2663,10 +2689,10 @@
       <c r="D60" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="51"/>
+      <c r="F60" s="47"/>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" ht="15">
@@ -2683,10 +2709,10 @@
       <c r="D61" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="51"/>
+      <c r="F61" s="47"/>
       <c r="G61"/>
     </row>
     <row r="62" spans="1:7" ht="15">
@@ -2703,42 +2729,76 @@
       <c r="D62" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="51"/>
+      <c r="F62" s="47"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="14" customHeight="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="59"/>
+    <row r="63" spans="1:7" ht="34" customHeight="1">
+      <c r="A63" s="36">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="50"/>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:7">
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="47"/>
       <c r="G64"/>
     </row>
+    <row r="65" spans="1:7" ht="45" customHeight="1">
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="50"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" ht="14" customHeight="1">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="G67"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="E62:F62"/>
+  <mergeCells count="44">
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E50:F50"/>
@@ -2755,19 +2815,26 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D77" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D80" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A414E16E-ABDC-7D45-A5BE-9132D5B841AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A9D22-FDC5-4A41-84D6-BA1035EA5DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="3560" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -746,29 +746,37 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>breadCrumbNameList</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パンくずリストとして表示する画面名（alias）のリストを保持する。自分自身は含まない。</t>
+    <t>java.util.List&lt;blanco.vuecomponent.valueobject.BlancoVueComponentBreadCrumbStructure&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パンくずリストとして表示する画面名（name, nolink）のリストを保持する。自分自身は含まない。</t>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">ヒョウジ </t>
     </rPh>
     <rPh sb="14" eb="17">
       <t xml:space="preserve">ガメンメイ </t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="36" eb="38">
       <t xml:space="preserve">ホジスル </t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="41" eb="43">
       <t xml:space="preserve">ジブｎ </t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="43" eb="45">
       <t xml:space="preserve">ジシンハ </t>
     </rPh>
-    <rPh sb="39" eb="40">
+    <rPh sb="46" eb="47">
       <t xml:space="preserve">フクマナイ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>breadCrumbList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;&gt;()</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1307,44 +1315,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,8 +1766,8 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1954,24 +1962,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="51"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="55"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="51"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="55"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -2013,30 +2021,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="8"/>
       <c r="G26"/>
     </row>
@@ -2077,7 +2085,7 @@
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
       <c r="A29" s="36">
-        <f t="shared" ref="A29:A65" si="0">A28+1</f>
+        <f t="shared" ref="A29:A63" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -2087,10 +2095,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="38"/>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="47" customHeight="1">
@@ -2105,10 +2113,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="38"/>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="47" customHeight="1">
@@ -2123,10 +2131,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="38"/>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="57"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="47" customHeight="1">
@@ -2141,10 +2149,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="38"/>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="57"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="47" customHeight="1">
@@ -2159,10 +2167,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="38"/>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -2200,7 +2208,7 @@
       <c r="E35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="51"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -2217,10 +2225,10 @@
       <c r="D36" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="53"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -2237,10 +2245,10 @@
       <c r="D37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="53"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -2257,10 +2265,10 @@
       <c r="D38" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="53"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2277,10 +2285,10 @@
       <c r="D39" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="53"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -2300,7 +2308,7 @@
       <c r="E40" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="47"/>
+      <c r="F40" s="51"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -2320,7 +2328,7 @@
       <c r="E41" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="47"/>
+      <c r="F41" s="51"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="15">
@@ -2340,7 +2348,7 @@
       <c r="E42" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="51"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="15">
@@ -2360,7 +2368,7 @@
       <c r="E43" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="51"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="15">
@@ -2380,7 +2388,7 @@
       <c r="E44" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="47"/>
+      <c r="F44" s="51"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -2400,7 +2408,7 @@
       <c r="E45" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="47"/>
+      <c r="F45" s="51"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="15">
@@ -2420,7 +2428,7 @@
       <c r="E46" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="47"/>
+      <c r="F46" s="51"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -2440,7 +2448,7 @@
       <c r="E47" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="47"/>
+      <c r="F47" s="51"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="15">
@@ -2460,7 +2468,7 @@
       <c r="E48" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="51"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="15">
@@ -2478,7 +2486,7 @@
       <c r="E49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="47"/>
+      <c r="F49" s="51"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="45" customHeight="1">
@@ -2498,7 +2506,7 @@
       <c r="E50" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="50"/>
+      <c r="F50" s="47"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" ht="45">
@@ -2518,7 +2526,7 @@
       <c r="E51" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="50"/>
+      <c r="F51" s="47"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" ht="45">
@@ -2538,7 +2546,7 @@
       <c r="E52" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="50"/>
+      <c r="F52" s="47"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" ht="45">
@@ -2558,7 +2566,7 @@
       <c r="E53" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="50"/>
+      <c r="F53" s="47"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" ht="15">
@@ -2576,7 +2584,7 @@
       <c r="E54" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="50"/>
+      <c r="F54" s="47"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7">
@@ -2596,7 +2604,7 @@
       <c r="E55" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="47"/>
+      <c r="F55" s="51"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" ht="15">
@@ -2672,7 +2680,7 @@
       <c r="E59" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="47"/>
+      <c r="F59" s="51"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" ht="15">
@@ -2692,7 +2700,7 @@
       <c r="E60" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="47"/>
+      <c r="F60" s="51"/>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" ht="15">
@@ -2712,7 +2720,7 @@
       <c r="E61" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="47"/>
+      <c r="F61" s="51"/>
       <c r="G61"/>
     </row>
     <row r="62" spans="1:7" ht="15">
@@ -2732,7 +2740,7 @@
       <c r="E62" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="47"/>
+      <c r="F62" s="51"/>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:7" ht="34" customHeight="1">
@@ -2741,18 +2749,18 @@
         <v>37</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="38" t="s">
-        <v>42</v>
-      </c>
       <c r="D63" s="38" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="E63" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="50"/>
+      <c r="F63" s="47"/>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:7">
@@ -2761,7 +2769,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="46"/>
-      <c r="F64" s="47"/>
+      <c r="F64" s="51"/>
       <c r="G64"/>
     </row>
     <row r="65" spans="1:7" ht="45" customHeight="1">
@@ -2770,7 +2778,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="46"/>
-      <c r="F65" s="50"/>
+      <c r="F65" s="47"/>
       <c r="G65"/>
     </row>
     <row r="66" spans="1:7" ht="14" customHeight="1">
@@ -2778,8 +2786,8 @@
       <c r="B66" s="21"/>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="49"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
       <c r="G66"/>
     </row>
     <row r="67" spans="1:7">
@@ -2787,6 +2795,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2803,34 +2839,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A9D22-FDC5-4A41-84D6-BA1035EA5DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83125E-A8D7-9E49-9FD1-AEEE8D4A7098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="3560" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="7780" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -777,6 +777,29 @@
   </si>
   <si>
     <t>new java.util.ArrayList&lt;&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menuLabel</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面コンポーネントのメニュー表示用ラベルを定義します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コンポーネントノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">テイギシマス。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1764,10 +1787,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64:F64"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2085,7 +2108,7 @@
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
       <c r="A29" s="36">
-        <f t="shared" ref="A29:A63" si="0">A28+1</f>
+        <f t="shared" ref="A29:A64" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -2669,18 +2692,16 @@
         <v>33</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="51"/>
+        <v>32</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="41"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" ht="15">
@@ -2689,7 +2710,7 @@
         <v>34</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="38" t="s">
         <v>56</v>
@@ -2698,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60"/>
@@ -2709,16 +2730,16 @@
         <v>35</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>116</v>
+        <v>56</v>
+      </c>
+      <c r="D61" s="38" t="b">
+        <v>0</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61"/>
@@ -2729,74 +2750,94 @@
         <v>36</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>116</v>
       </c>
       <c r="E62" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="34" customHeight="1">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="36">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="51"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" ht="34" customHeight="1">
+      <c r="A64" s="36">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B64" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C64" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D64" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E64" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="47"/>
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="51"/>
+      <c r="F64" s="47"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="45" customHeight="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="36"/>
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="46"/>
-      <c r="F65" s="47"/>
+      <c r="F65" s="51"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="14" customHeight="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="59"/>
+    <row r="66" spans="1:7" ht="45" customHeight="1">
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="47"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" ht="14" customHeight="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="59"/>
       <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="G68"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E67:F67"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
@@ -2807,10 +2848,11 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E36:F36"/>
@@ -2823,26 +2865,25 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E65:F65"/>
     <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E63:F63"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D80" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D81" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoVueComponentClassStructure.xlsx
+++ b/meta/program/BlancoVueComponentClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83125E-A8D7-9E49-9FD1-AEEE8D4A7098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971314A9-4989-6F42-A8BB-0B26124EECBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="7780" windowWidth="22500" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -799,6 +799,26 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t xml:space="preserve">テイギシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>permissionKind</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>権限種別または権限グループでを表す文字列です。</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ケンゲンシュベツ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ケンゲｎ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">アラワス </t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">モジレツ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1338,9 +1358,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,33 +1396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1787,10 +1807,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1985,24 +2005,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="55"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="51"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="55"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="51"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -2044,30 +2064,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="52" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="8"/>
       <c r="G26"/>
     </row>
@@ -2108,7 +2128,7 @@
     </row>
     <row r="29" spans="1:7" ht="47" customHeight="1">
       <c r="A29" s="36">
-        <f t="shared" ref="A29:A64" si="0">A28+1</f>
+        <f t="shared" ref="A29:A65" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -2118,10 +2138,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="38"/>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="56"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="47" customHeight="1">
@@ -2136,10 +2156,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="38"/>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="57"/>
+      <c r="F30" s="56"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="47" customHeight="1">
@@ -2154,10 +2174,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="38"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="56"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="47" customHeight="1">
@@ -2172,10 +2192,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="38"/>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="56"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="47" customHeight="1">
@@ -2190,10 +2210,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="38"/>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="56"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -2231,7 +2251,7 @@
       <c r="E35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="51"/>
+      <c r="F35" s="47"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -2248,10 +2268,10 @@
       <c r="D36" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -2268,10 +2288,10 @@
       <c r="D37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -2288,10 +2308,10 @@
       <c r="D38" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="54"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2308,10 +2328,10 @@
       <c r="D39" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -2331,7 +2351,7 @@
       <c r="E40" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="47"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -2351,7 +2371,7 @@
       <c r="E41" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="51"/>
+      <c r="F41" s="47"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="15">
@@ -2371,7 +2391,7 @@
       <c r="E42" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="51"/>
+      <c r="F42" s="47"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="15">
@@ -2391,7 +2411,7 @@
       <c r="E43" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="51"/>
+      <c r="F43" s="47"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="15">
@@ -2411,7 +2431,7 @@
       <c r="E44" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="51"/>
+      <c r="F44" s="47"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -2431,7 +2451,7 @@
       <c r="E45" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="47"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="15">
@@ -2451,7 +2471,7 @@
       <c r="E46" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="51"/>
+      <c r="F46" s="47"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -2471,7 +2491,7 @@
       <c r="E47" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="47"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="15">
@@ -2491,7 +2511,7 @@
       <c r="E48" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="47"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="15">
@@ -2509,7 +2529,7 @@
       <c r="E49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="47"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="45" customHeight="1">
@@ -2529,7 +2549,7 @@
       <c r="E50" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="50"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" ht="45">
@@ -2549,7 +2569,7 @@
       <c r="E51" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="47"/>
+      <c r="F51" s="50"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" ht="45">
@@ -2569,7 +2589,7 @@
       <c r="E52" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="47"/>
+      <c r="F52" s="50"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" ht="45">
@@ -2589,7 +2609,7 @@
       <c r="E53" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="47"/>
+      <c r="F53" s="50"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" ht="15">
@@ -2607,7 +2627,7 @@
       <c r="E54" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="47"/>
+      <c r="F54" s="50"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7">
@@ -2627,7 +2647,7 @@
       <c r="E55" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="51"/>
+      <c r="F55" s="47"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" ht="15">
@@ -2721,7 +2741,7 @@
       <c r="E60" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="51"/>
+      <c r="F60" s="47"/>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" ht="15">
@@ -2741,7 +2761,7 @@
       <c r="E61" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="51"/>
+      <c r="F61" s="47"/>
       <c r="G61"/>
     </row>
     <row r="62" spans="1:7" ht="15">
@@ -2761,7 +2781,7 @@
       <c r="E62" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="51"/>
+      <c r="F62" s="47"/>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:7" ht="15">
@@ -2781,7 +2801,7 @@
       <c r="E63" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="51"/>
+      <c r="F63" s="47"/>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:7" ht="34" customHeight="1">
@@ -2801,19 +2821,30 @@
       <c r="E64" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="47"/>
+      <c r="F64" s="50"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="51"/>
+    <row r="65" spans="1:7" ht="15">
+      <c r="A65" s="36">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="47"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="45" customHeight="1">
+    <row r="66" spans="1:7">
       <c r="A66" s="36"/>
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
@@ -2822,22 +2853,60 @@
       <c r="F66" s="47"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="14" customHeight="1">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="59"/>
+    <row r="67" spans="1:7" ht="45" customHeight="1">
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="50"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" ht="14" customHeight="1">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
       <c r="G68"/>
     </row>
+    <row r="69" spans="1:7">
+      <c r="G69"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
@@ -2852,38 +2921,10 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D81" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
